--- a/scopeCanvas/scopecanvasgiron.xlsx
+++ b/scopeCanvas/scopecanvasgiron.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>NECESIDADES</t>
   </si>
@@ -56,38 +56,43 @@
     <t>METRICAS</t>
   </si>
   <si>
+    <t>* Realizar los ajustes de los planos de los tres pisos.
+* Remodelar el primer piso teniendo en cuenta el diseño del segundo y tercer piso.
+* Potenciar el uso mixto del inmueble comercial y vivienda.
+* Contratar la ejecución de la obra por administración delegada con un 10% de los costos directos que ofrezca una persona residente en la obra.
+* Comprar los materiales a buenos precios.
+* Adquirir los materiales y mano de obra de buena calidad.
+* Contratar el personal que ofrezca el mejor precio de mano de obra.
+* Arreglar las filtraciones del agua de la placa que afecten el primer piso.
+* Construir la fachada del inmueble que tenga gran impacto.</t>
+  </si>
+  <si>
     <t>* Seguridad en los locales
+* RITEL - Redes Internas de Telecomunicaciones
+* comodidad - Baños, Pisos
+* Inmueble llamativo comercialmente.
+* Deposito de agua de reserva.
 * Ahorro de energía
-* comodidad
-* Condiciones ambientales confortables.
-* Deposito de agua de reserva.
-* RITEL - Redes Internas de Telecomunicaciones
-* Inmueble llamativo comercialmente.</t>
-  </si>
-  <si>
-    <t>* Los locales y apartamentos 
-siempre estén arrendados.</t>
-  </si>
-  <si>
-    <t>* Reducir los costos de la construcción.
-* Mantener una calidad buena de los materiales.
-* Potenciar al máximo el uso mixto del inmueble comercial y vivienda.
+* Condiciones ambientales confortables.</t>
+  </si>
+  <si>
+    <t>* Que los locales y apartamentos estén siempre arrendados.</t>
+  </si>
+  <si>
+    <t>* Que el inmueble se convierta en un referente comercial</t>
+  </si>
+  <si>
+    <t>* Reducir los costos directos de la construcción.
 * El tiempo máximo para terminar la obra debe ser como tarde en octubre.
-* La obra se debe ejecutar por administración delegada con una persona residente en la obra con 10% de los costos directos
-* Reducir los costos de la mano de obra.
-* Retorno de la inversión</t>
-  </si>
-  <si>
-    <t>* Que el inmueble se convierta
- en un referente comercial</t>
+* Retornar la inversión lo más pronto posible.</t>
+  </si>
+  <si>
+    <t>* Controlar los precios de los materiales.</t>
   </si>
   <si>
     <t>* Controlar las cantidades de obra.</t>
   </si>
   <si>
-    <t>* Controlar los precios de los materiales.</t>
-  </si>
-  <si>
     <t>* Controlar los tiempos de las actividades.</t>
   </si>
   <si>
@@ -103,16 +108,19 @@
     <t>* Descuentos obtenidos.</t>
   </si>
   <si>
+    <t>* Valor del metro cuadrado.</t>
+  </si>
+  <si>
+    <t>* Tramites realizados. Porcentaje.</t>
+  </si>
+  <si>
     <t>* Ejecución de la obra. Porcentaje.</t>
   </si>
   <si>
-    <t>* Valor del metro cuadrado.</t>
-  </si>
-  <si>
-    <t>* Tramites realizados. Porcentaje.</t>
-  </si>
-  <si>
-    <t>REFORMA CASA DEL POBLADO.</t>
+    <t>* Indice de retorno sobre la inversión</t>
+  </si>
+  <si>
+    <t>REMODELAR CASA DE EL POBLADO GIRON</t>
   </si>
 </sst>
 </file>
@@ -558,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -597,19 +605,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -625,7 +635,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="3"/>
@@ -636,7 +646,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="11"/>
       <c r="D8" s="6" t="s">
@@ -646,35 +656,37 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="11"/>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="11"/>
       <c r="D10" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="11"/>
       <c r="D12" s="6"/>
